--- a/data/FX_derivatives_some.xlsx
+++ b/data/FX_derivatives_some.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsmith/Documents/Adobe/Treasury_python_tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07B9A2C-A87A-B847-BFE3-8B42AC8E0D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0AAC00-85E5-6C4F-B832-1FA44585CA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F849CB91-5DD6-4F8A-90C6-237EBC1C2070}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2258,7 +2258,7 @@
         <v>77</v>
       </c>
       <c r="G37" s="13">
-        <v>11030</v>
+        <v>43903</v>
       </c>
       <c r="H37" s="13">
         <v>43907</v>
